--- a/biology/Zoologie/Datousaurus/Datousaurus.xlsx
+++ b/biology/Zoologie/Datousaurus/Datousaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Datousaurus bashanensis
 Datousaurus est un genre éteint de dinosaures sauropodes du Jurassique moyen retrouvé dans la sous-formation géologique de Shaximiao, correspondant à la partie supérieure de la formation de Dashanpu, près de la petite ville du même nom, Dashanpu, Zigong (Chine). 
-L'espèce type et seule espèce, Datousaurus bashanensis, a été décrite par Dong Zhiming et Tang Zilu en 1984[1].
-Le genre serait apparenté à Shunosaurus[1].
+L'espèce type et seule espèce, Datousaurus bashanensis, a été décrite par Dong Zhiming et Tang Zilu en 1984.
+Le genre serait apparenté à Shunosaurus.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Datousaurus provient du malais « datou » (« chef de clan ») ou du chinois « da tou » (« grosse tête ») et du grec « sauros/σαυρος » (lézard).
 </t>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faisait environ 14 mètres de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faisait environ 14 mètres de long.
 </t>
         </is>
       </c>
